--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed2/result_data_KNN.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.086</v>
+        <v>5.418</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.223999999999999</v>
+        <v>-7.255999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.458</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.384</v>
+        <v>7.891999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.468000000000001</v>
+        <v>-7.571</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.084000000000001</v>
+        <v>6.396</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.055</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.704</v>
+        <v>-13.379</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.847</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.1</v>
+        <v>-11.216</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.02</v>
+        <v>-11.329</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.648</v>
+        <v>-11.389</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.542</v>
+        <v>6.139999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.392</v>
+        <v>-13.368</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.772</v>
+        <v>-12.996</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.606</v>
+        <v>5.178</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.468</v>
+        <v>-13.716</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.634</v>
+        <v>-8.323</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.952</v>
+        <v>4.714</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.742</v>
+        <v>-7.739</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.915999999999999</v>
+        <v>5.667000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.523999999999999</v>
+        <v>-7.188000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.376</v>
+        <v>-12.818</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.768</v>
+        <v>5.760000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.481999999999999</v>
+        <v>5.702</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8</v>
+        <v>-8.241</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.016</v>
+        <v>-10.953</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.474</v>
+        <v>-12.91</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.046</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.651999999999999</v>
+        <v>-8.397</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.68</v>
+        <v>-8.361999999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.789999999999999</v>
+        <v>-7.805000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
